--- a/Code/Results/Cases/Case_2_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.744749709696521</v>
+        <v>1.196066065259174</v>
       </c>
       <c r="C2">
-        <v>1.225605482335084</v>
+        <v>0.3842460153423417</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.470681969942675</v>
+        <v>0.4267877700075502</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.5214803196044215</v>
+        <v>0.2988891640978295</v>
       </c>
       <c r="H2">
-        <v>0.2890469263836906</v>
+        <v>0.4179759268276513</v>
       </c>
       <c r="I2">
-        <v>0.1252841399546938</v>
+        <v>0.2534748189175851</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.248144340574186</v>
+        <v>1.045931578302486</v>
       </c>
       <c r="C3">
-        <v>1.064126953972448</v>
+        <v>0.3359693454906676</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.256486783824684</v>
+        <v>0.372013532808964</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.4509722625151085</v>
+        <v>0.2908448685241751</v>
       </c>
       <c r="H3">
-        <v>0.2681007733491469</v>
+        <v>0.4214889163782658</v>
       </c>
       <c r="I3">
-        <v>0.1244865788902167</v>
+        <v>0.2609967475567174</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.945395789868542</v>
+        <v>0.9535825454929636</v>
       </c>
       <c r="C4">
-        <v>0.9659560387315764</v>
+        <v>0.3062284184046575</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.128433568298917</v>
+        <v>0.3385037565169284</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.4112642228574117</v>
+        <v>0.2865333117792801</v>
       </c>
       <c r="H4">
-        <v>0.2571523991154407</v>
+        <v>0.4241743304012005</v>
       </c>
       <c r="I4">
-        <v>0.1258240906499388</v>
+        <v>0.2660843967949091</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.822451040897761</v>
+        <v>0.9159082741816178</v>
       </c>
       <c r="C5">
-        <v>0.9261459476122695</v>
+        <v>0.2940835692519101</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.076979889145377</v>
+        <v>0.3248762196165416</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.39588305505427</v>
+        <v>0.2849316345146065</v>
       </c>
       <c r="H5">
-        <v>0.2531255380973931</v>
+        <v>0.4254004957568753</v>
       </c>
       <c r="I5">
-        <v>0.1267867565025789</v>
+        <v>0.2682745533835309</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.802058771192549</v>
+        <v>0.9096500097268745</v>
       </c>
       <c r="C6">
-        <v>0.9195459329512232</v>
+        <v>0.2920653965045688</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068476228994996</v>
+        <v>0.322614989461286</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.3933745774538409</v>
+        <v>0.2846749845204926</v>
       </c>
       <c r="H6">
-        <v>0.2524818650352785</v>
+        <v>0.4256120319040235</v>
       </c>
       <c r="I6">
-        <v>0.1269706790355798</v>
+        <v>0.2686452561935369</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.943736129259548</v>
+        <v>0.9530746236832215</v>
       </c>
       <c r="C7">
-        <v>0.9654184179089782</v>
+        <v>0.3060647310758213</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.127736870090274</v>
+        <v>0.3383198610164726</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.4110536738109118</v>
+        <v>0.2865110854549187</v>
       </c>
       <c r="H7">
-        <v>0.2570963893761302</v>
+        <v>0.4241903344754832</v>
       </c>
       <c r="I7">
-        <v>0.1258354350686268</v>
+        <v>0.2661134621239576</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.572995231863729</v>
+        <v>1.144334302877667</v>
       </c>
       <c r="C8">
-        <v>1.169692704993452</v>
+        <v>0.367620524531219</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.396017938799119</v>
+        <v>0.4078746997522842</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.4963612538048778</v>
+        <v>0.2959836977471753</v>
       </c>
       <c r="H8">
-        <v>0.2813984446232212</v>
+        <v>0.4190769038325044</v>
       </c>
       <c r="I8">
-        <v>0.1246034483712783</v>
+        <v>0.2559703601887477</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.830228164923767</v>
+        <v>1.518081104647422</v>
       </c>
       <c r="C9">
-        <v>1.580631123210082</v>
+        <v>0.487567922026642</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.956999525391765</v>
+        <v>0.5453655366994923</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6972277442774129</v>
+        <v>0.3196545790892173</v>
       </c>
       <c r="H9">
-        <v>0.3465816137879898</v>
+        <v>0.4132895915187191</v>
       </c>
       <c r="I9">
-        <v>0.1388047183308601</v>
+        <v>0.2398504570444047</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.777836122085546</v>
+        <v>1.791908278422341</v>
       </c>
       <c r="C10">
-        <v>1.893077866824797</v>
+        <v>0.5752665516382081</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.402646644985325</v>
+        <v>0.6472337432702773</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.873510767357601</v>
+        <v>0.3403125575931369</v>
       </c>
       <c r="H10">
-        <v>0.4089223730524054</v>
+        <v>0.4116886565497708</v>
       </c>
       <c r="I10">
-        <v>0.1627500223154357</v>
+        <v>0.2303721130619678</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.216726349886983</v>
+        <v>1.916323874004888</v>
       </c>
       <c r="C11">
-        <v>2.038646673485118</v>
+        <v>0.6150794675478437</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.616076781763994</v>
+        <v>0.6938031159386213</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.9621550445663019</v>
+        <v>0.3504547812095211</v>
       </c>
       <c r="H11">
-        <v>0.4414333714256742</v>
+        <v>0.4115503974662289</v>
       </c>
       <c r="I11">
-        <v>0.1774830676709769</v>
+        <v>0.226588039633004</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.384305389140479</v>
+        <v>1.963415610197046</v>
       </c>
       <c r="C12">
-        <v>2.094378726460945</v>
+        <v>0.6301444320602059</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.698792211152934</v>
+        <v>0.7114739079612349</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.9971608439202413</v>
+        <v>0.3544053144905632</v>
       </c>
       <c r="H12">
-        <v>0.454443485102729</v>
+        <v>0.4115840669493309</v>
       </c>
       <c r="I12">
-        <v>0.1837053305425904</v>
+        <v>0.2252321834302435</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.348148287996139</v>
+        <v>1.953274532292653</v>
       </c>
       <c r="C13">
-        <v>2.082346738858291</v>
+        <v>0.6269004191308909</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.680887292681319</v>
+        <v>0.7076665373244424</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.9895537958990843</v>
+        <v>0.3535495642509829</v>
       </c>
       <c r="H13">
-        <v>0.4516086287607237</v>
+        <v>0.4115729706922764</v>
       </c>
       <c r="I13">
-        <v>0.1823350346224686</v>
+        <v>0.2255207433185191</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.230483883244233</v>
+        <v>1.920198576381438</v>
       </c>
       <c r="C14">
-        <v>2.043218864858318</v>
+        <v>0.6163190957065012</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.622841579534906</v>
+        <v>0.6952561638514396</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.9650047575574234</v>
+        <v>0.3507775754691806</v>
       </c>
       <c r="H14">
-        <v>0.4424890680973022</v>
+        <v>0.4115514365946211</v>
       </c>
       <c r="I14">
-        <v>0.1779815107376841</v>
+        <v>0.2264749405507303</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.158599197261481</v>
+        <v>1.899935760603626</v>
       </c>
       <c r="C15">
-        <v>2.01933486625785</v>
+        <v>0.6098362677519731</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.58754532240539</v>
+        <v>0.6876592290190757</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.9501623112430622</v>
+        <v>0.349094046863982</v>
       </c>
       <c r="H15">
-        <v>0.4369974125024925</v>
+        <v>0.4115494846165006</v>
       </c>
       <c r="I15">
-        <v>0.1754015730734082</v>
+        <v>0.2270694894522585</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.749331939612944</v>
+        <v>1.783774393338717</v>
       </c>
       <c r="C16">
-        <v>1.883643059250517</v>
+        <v>0.5726630763650178</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.38894263027268</v>
+        <v>0.6441951930320613</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.8679059324957308</v>
+        <v>0.3396649649268824</v>
       </c>
       <c r="H16">
-        <v>0.4068895728131707</v>
+        <v>0.4117096654860291</v>
       </c>
       <c r="I16">
-        <v>0.1618718959608252</v>
+        <v>0.2306301326450537</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.500432165935536</v>
+        <v>1.712474627488916</v>
       </c>
       <c r="C17">
-        <v>1.801355744853083</v>
+        <v>0.5498379087127887</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.270079026981193</v>
+        <v>0.6175922234768052</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.819756221040933</v>
+        <v>0.3340732703470053</v>
       </c>
       <c r="H17">
-        <v>0.3895500698038603</v>
+        <v>0.4119598856088231</v>
       </c>
       <c r="I17">
-        <v>0.1546156040586837</v>
+        <v>0.2329504807406195</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.357989954987829</v>
+        <v>1.671450800773243</v>
       </c>
       <c r="C18">
-        <v>1.754341712295457</v>
+        <v>0.5367017662848639</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.202694355495098</v>
+        <v>0.6023122693328418</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.7928420329355959</v>
+        <v>0.3309270120017658</v>
       </c>
       <c r="H18">
-        <v>0.379960637251628</v>
+        <v>0.4121592692553691</v>
       </c>
       <c r="I18">
-        <v>0.1507971946421378</v>
+        <v>0.2343346776852009</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.309877688654979</v>
+        <v>1.657558426021581</v>
       </c>
       <c r="C19">
-        <v>1.738474575536145</v>
+        <v>0.5322527577242226</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.180038099684538</v>
+        <v>0.5971423177658011</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.7838571663639016</v>
+        <v>0.3298736699415059</v>
       </c>
       <c r="H19">
-        <v>0.3767769030737753</v>
+        <v>0.412236267221715</v>
       </c>
       <c r="I19">
-        <v>0.1495628217100169</v>
+        <v>0.2348118240449111</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.526851897067104</v>
+        <v>1.720066068981964</v>
       </c>
       <c r="C20">
-        <v>1.810081955351336</v>
+        <v>0.552268481733563</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.282628220957662</v>
+        <v>0.6204219212730493</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.8247995914550188</v>
+        <v>0.3346612574804624</v>
       </c>
       <c r="H20">
-        <v>0.3913554845090914</v>
+        <v>0.4119275004682805</v>
       </c>
       <c r="I20">
-        <v>0.1553506733996279</v>
+        <v>0.2326983341953834</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.265005039725452</v>
+        <v>1.929914378081833</v>
       </c>
       <c r="C21">
-        <v>2.05469414920276</v>
+        <v>0.6194273907634624</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.63983642045774</v>
+        <v>0.6989003902806843</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.9721744084610862</v>
+        <v>0.3515887709426551</v>
       </c>
       <c r="H21">
-        <v>0.4451478368756767</v>
+        <v>0.4115554175086231</v>
       </c>
       <c r="I21">
-        <v>0.1792419889768695</v>
+        <v>0.2261925677832366</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.755630904773795</v>
+        <v>2.066935550713822</v>
       </c>
       <c r="C22">
-        <v>2.218176559163226</v>
+        <v>0.6632538316804357</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.884553196313533</v>
+        <v>0.7504017872733471</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.077007770731996</v>
+        <v>0.3632937329212353</v>
       </c>
       <c r="H22">
-        <v>0.4844387388407227</v>
+        <v>0.4118142167468619</v>
       </c>
       <c r="I22">
-        <v>0.1986593063967845</v>
+        <v>0.2223905834395659</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.492928002566259</v>
+        <v>1.993816431376729</v>
       </c>
       <c r="C23">
-        <v>2.130548941669815</v>
+        <v>0.639868711851534</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.752775841521739</v>
+        <v>0.722894177605113</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>1.020192997960635</v>
+        <v>0.3569869168392046</v>
       </c>
       <c r="H23">
-        <v>0.4630516906389914</v>
+        <v>0.4116297664509148</v>
       </c>
       <c r="I23">
-        <v>0.1879136905749483</v>
+        <v>0.2243782044791693</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.514905519640138</v>
+        <v>1.716634079949586</v>
       </c>
       <c r="C24">
-        <v>1.806135928061281</v>
+        <v>0.551169662230393</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.276951792077554</v>
+        <v>0.6191425701634472</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>0.8225171087082686</v>
+        <v>0.3343952153997662</v>
       </c>
       <c r="H24">
-        <v>0.390538082614583</v>
+        <v>0.4119419689084083</v>
       </c>
       <c r="I24">
-        <v>0.1550172546757906</v>
+        <v>0.2328121733759332</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.486697400232458</v>
+        <v>1.417109775708695</v>
       </c>
       <c r="C25">
-        <v>1.467953761338663</v>
+        <v>0.4551967779846677</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.800362760656199</v>
+        <v>0.5080343731648469</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.6385119337649456</v>
+        <v>0.31268895084132</v>
       </c>
       <c r="H25">
-        <v>0.3267142220952479</v>
+        <v>0.4143944794371635</v>
       </c>
       <c r="I25">
-        <v>0.1328626601648502</v>
+        <v>0.2438008223960892</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.196066065259174</v>
+        <v>3.744749709696691</v>
       </c>
       <c r="C2">
-        <v>0.3842460153423417</v>
+        <v>1.225605482335368</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4267877700075502</v>
+        <v>1.470681969942675</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2988891640978295</v>
+        <v>0.5214803196044073</v>
       </c>
       <c r="H2">
-        <v>0.4179759268276513</v>
+        <v>0.2890469263836906</v>
       </c>
       <c r="I2">
-        <v>0.2534748189175851</v>
+        <v>0.1252841399546938</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.045931578302486</v>
+        <v>3.248144340574299</v>
       </c>
       <c r="C3">
-        <v>0.3359693454906676</v>
+        <v>1.064126953972703</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.372013532808964</v>
+        <v>1.25648678382467</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2908448685241751</v>
+        <v>0.4509722625150516</v>
       </c>
       <c r="H3">
-        <v>0.4214889163782658</v>
+        <v>0.2681007733491469</v>
       </c>
       <c r="I3">
-        <v>0.2609967475567174</v>
+        <v>0.124486578890199</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9535825454929636</v>
+        <v>2.945395789868485</v>
       </c>
       <c r="C4">
-        <v>0.3062284184046575</v>
+        <v>0.9659560387316048</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3385037565169284</v>
+        <v>1.128433568298902</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2865333117792801</v>
+        <v>0.4112642228573691</v>
       </c>
       <c r="H4">
-        <v>0.4241743304012005</v>
+        <v>0.2571523991154407</v>
       </c>
       <c r="I4">
-        <v>0.2660843967949091</v>
+        <v>0.1258240906499211</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9159082741816178</v>
+        <v>2.822451040897704</v>
       </c>
       <c r="C5">
-        <v>0.2940835692519101</v>
+        <v>0.9261459476119285</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3248762196165416</v>
+        <v>1.076979889145377</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.2849316345146065</v>
+        <v>0.39588305505427</v>
       </c>
       <c r="H5">
-        <v>0.4254004957568753</v>
+        <v>0.2531255380973931</v>
       </c>
       <c r="I5">
-        <v>0.2682745533835309</v>
+        <v>0.1267867565025611</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9096500097268745</v>
+        <v>2.802058771192435</v>
       </c>
       <c r="C6">
-        <v>0.2920653965045688</v>
+        <v>0.9195459329512801</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.322614989461286</v>
+        <v>1.068476228995024</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.2846749845204926</v>
+        <v>0.3933745774538551</v>
       </c>
       <c r="H6">
-        <v>0.4256120319040235</v>
+        <v>0.2524818650352785</v>
       </c>
       <c r="I6">
-        <v>0.2686452561935369</v>
+        <v>0.1269706790355798</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9530746236832215</v>
+        <v>2.943736129259662</v>
       </c>
       <c r="C7">
-        <v>0.3060647310758213</v>
+        <v>0.9654184179094614</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3383198610164726</v>
+        <v>1.127736870090246</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2865110854549187</v>
+        <v>0.4110536738109829</v>
       </c>
       <c r="H7">
-        <v>0.4241903344754832</v>
+        <v>0.2570963893762439</v>
       </c>
       <c r="I7">
-        <v>0.2661134621239576</v>
+        <v>0.1258354350686268</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.144334302877667</v>
+        <v>3.572995231863672</v>
       </c>
       <c r="C8">
-        <v>0.367620524531219</v>
+        <v>1.169692704993111</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4078746997522842</v>
+        <v>1.396017938799076</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2959836977471753</v>
+        <v>0.4963612538048068</v>
       </c>
       <c r="H8">
-        <v>0.4190769038325044</v>
+        <v>0.2813984446232496</v>
       </c>
       <c r="I8">
-        <v>0.2559703601887477</v>
+        <v>0.1246034483712855</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.518081104647422</v>
+        <v>4.830228164923881</v>
       </c>
       <c r="C9">
-        <v>0.487567922026642</v>
+        <v>1.580631123210537</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5453655366994923</v>
+        <v>1.956999525391794</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.3196545790892173</v>
+        <v>0.697227744277356</v>
       </c>
       <c r="H9">
-        <v>0.4132895915187191</v>
+        <v>0.3465816137878477</v>
       </c>
       <c r="I9">
-        <v>0.2398504570444047</v>
+        <v>0.1388047183308743</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791908278422341</v>
+        <v>5.777836122085546</v>
       </c>
       <c r="C10">
-        <v>0.5752665516382081</v>
+        <v>1.893077866824797</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6472337432702773</v>
+        <v>2.402646644985367</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.3403125575931369</v>
+        <v>0.8735107673576579</v>
       </c>
       <c r="H10">
-        <v>0.4116886565497708</v>
+        <v>0.4089223730524054</v>
       </c>
       <c r="I10">
-        <v>0.2303721130619678</v>
+        <v>0.1627500223154321</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.916323874004888</v>
+        <v>6.216726349887097</v>
       </c>
       <c r="C11">
-        <v>0.6150794675478437</v>
+        <v>2.038646673484834</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6938031159386213</v>
+        <v>2.616076781763994</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.3504547812095211</v>
+        <v>0.9621550445662734</v>
       </c>
       <c r="H11">
-        <v>0.4115503974662289</v>
+        <v>0.4414333714256884</v>
       </c>
       <c r="I11">
-        <v>0.226588039633004</v>
+        <v>0.1774830676709769</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.963415610197046</v>
+        <v>6.38430538914082</v>
       </c>
       <c r="C12">
-        <v>0.6301444320602059</v>
+        <v>2.094378726461002</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7114739079612349</v>
+        <v>2.69879221115292</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.3544053144905632</v>
+        <v>0.9971608439201987</v>
       </c>
       <c r="H12">
-        <v>0.4115840669493309</v>
+        <v>0.454443485102729</v>
       </c>
       <c r="I12">
-        <v>0.2252321834302435</v>
+        <v>0.1837053305425869</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.953274532292653</v>
+        <v>6.348148287995855</v>
       </c>
       <c r="C13">
-        <v>0.6269004191308909</v>
+        <v>2.082346738858234</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7076665373244424</v>
+        <v>2.680887292681362</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.3535495642509829</v>
+        <v>0.9895537958990985</v>
       </c>
       <c r="H13">
-        <v>0.4115729706922764</v>
+        <v>0.4516086287606242</v>
       </c>
       <c r="I13">
-        <v>0.2255207433185191</v>
+        <v>0.1823350346224899</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.920198576381438</v>
+        <v>6.230483883244347</v>
       </c>
       <c r="C14">
-        <v>0.6163190957065012</v>
+        <v>2.043218864858773</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6952561638514396</v>
+        <v>2.622841579534992</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3507775754691806</v>
+        <v>0.9650047575574376</v>
       </c>
       <c r="H14">
-        <v>0.4115514365946211</v>
+        <v>0.4424890680972169</v>
       </c>
       <c r="I14">
-        <v>0.2264749405507303</v>
+        <v>0.1779815107376983</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.899935760603626</v>
+        <v>6.15859919726114</v>
       </c>
       <c r="C15">
-        <v>0.6098362677519731</v>
+        <v>2.019334866257566</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6876592290190757</v>
+        <v>2.58754532240539</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.349094046863982</v>
+        <v>0.9501623112431616</v>
       </c>
       <c r="H15">
-        <v>0.4115494846165006</v>
+        <v>0.436997412502393</v>
       </c>
       <c r="I15">
-        <v>0.2270694894522585</v>
+        <v>0.1754015730733975</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783774393338717</v>
+        <v>5.749331939613</v>
       </c>
       <c r="C16">
-        <v>0.5726630763650178</v>
+        <v>1.883643059250517</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6441951930320613</v>
+        <v>2.388942630272695</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3396649649268824</v>
+        <v>0.867905932495816</v>
       </c>
       <c r="H16">
-        <v>0.4117096654860291</v>
+        <v>0.4068895728131565</v>
       </c>
       <c r="I16">
-        <v>0.2306301326450537</v>
+        <v>0.1618718959608074</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712474627488916</v>
+        <v>5.500432165935536</v>
       </c>
       <c r="C17">
-        <v>0.5498379087127887</v>
+        <v>1.80135574485314</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6175922234768052</v>
+        <v>2.270079026981151</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.3340732703470053</v>
+        <v>0.8197562210409757</v>
       </c>
       <c r="H17">
-        <v>0.4119598856088231</v>
+        <v>0.3895500698038461</v>
       </c>
       <c r="I17">
-        <v>0.2329504807406195</v>
+        <v>0.1546156040586837</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.671450800773243</v>
+        <v>5.357989954987943</v>
       </c>
       <c r="C18">
-        <v>0.5367017662848639</v>
+        <v>1.75434171229557</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6023122693328418</v>
+        <v>2.202694355495055</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.3309270120017658</v>
+        <v>0.7928420329356101</v>
       </c>
       <c r="H18">
-        <v>0.4121592692553691</v>
+        <v>0.3799606372516138</v>
       </c>
       <c r="I18">
-        <v>0.2343346776852009</v>
+        <v>0.1507971946421378</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657558426021581</v>
+        <v>5.309877688655149</v>
       </c>
       <c r="C19">
-        <v>0.5322527577242226</v>
+        <v>1.738474575536316</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5971423177658011</v>
+        <v>2.18003809968458</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.3298736699415059</v>
+        <v>0.7838571663639726</v>
       </c>
       <c r="H19">
-        <v>0.412236267221715</v>
+        <v>0.3767769030739032</v>
       </c>
       <c r="I19">
-        <v>0.2348118240449111</v>
+        <v>0.1495628217100275</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.720066068981964</v>
+        <v>5.526851897067331</v>
       </c>
       <c r="C20">
-        <v>0.552268481733563</v>
+        <v>1.810081955350881</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6204219212730493</v>
+        <v>2.282628220957662</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3346612574804624</v>
+        <v>0.8247995914549762</v>
       </c>
       <c r="H20">
-        <v>0.4119275004682805</v>
+        <v>0.3913554845090772</v>
       </c>
       <c r="I20">
-        <v>0.2326983341953834</v>
+        <v>0.1553506733996279</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.929914378081833</v>
+        <v>6.265005039725395</v>
       </c>
       <c r="C21">
-        <v>0.6194273907634624</v>
+        <v>2.054694149202476</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6989003902806843</v>
+        <v>2.639836420457769</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3515887709426551</v>
+        <v>0.9721744084611572</v>
       </c>
       <c r="H21">
-        <v>0.4115554175086231</v>
+        <v>0.4451478368756909</v>
       </c>
       <c r="I21">
-        <v>0.2261925677832366</v>
+        <v>0.1792419889768695</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.066935550713822</v>
+        <v>6.755630904773625</v>
       </c>
       <c r="C22">
-        <v>0.6632538316804357</v>
+        <v>2.218176559162998</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7504017872733471</v>
+        <v>2.884553196313547</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.3632937329212353</v>
+        <v>1.077007770731981</v>
       </c>
       <c r="H22">
-        <v>0.4118142167468619</v>
+        <v>0.4844387388407227</v>
       </c>
       <c r="I22">
-        <v>0.2223905834395659</v>
+        <v>0.1986593063967916</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993816431376729</v>
+        <v>6.492928002566146</v>
       </c>
       <c r="C23">
-        <v>0.639868711851534</v>
+        <v>2.130548941669815</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.722894177605113</v>
+        <v>2.752775841521782</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.3569869168392046</v>
+        <v>1.020192997960635</v>
       </c>
       <c r="H23">
-        <v>0.4116297664509148</v>
+        <v>0.4630516906389914</v>
       </c>
       <c r="I23">
-        <v>0.2243782044791693</v>
+        <v>0.1879136905749661</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.716634079949586</v>
+        <v>5.514905519640308</v>
       </c>
       <c r="C24">
-        <v>0.551169662230393</v>
+        <v>1.806135928061337</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6191425701634472</v>
+        <v>2.27695179207754</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3343952153997662</v>
+        <v>0.8225171087083254</v>
       </c>
       <c r="H24">
-        <v>0.4119419689084083</v>
+        <v>0.3905380826144693</v>
       </c>
       <c r="I24">
-        <v>0.2328121733759332</v>
+        <v>0.1550172546758013</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.417109775708695</v>
+        <v>4.486697400232288</v>
       </c>
       <c r="C25">
-        <v>0.4551967779846677</v>
+        <v>1.46795376133889</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5080343731648469</v>
+        <v>1.800362760656185</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.31268895084132</v>
+        <v>0.6385119337649598</v>
       </c>
       <c r="H25">
-        <v>0.4143944794371635</v>
+        <v>0.3267142220952479</v>
       </c>
       <c r="I25">
-        <v>0.2438008223960892</v>
+        <v>0.1328626601648502</v>
       </c>
       <c r="J25">
         <v>0</v>
